--- a/Selenium/FlipcartSearch/flipkart_mobiles.xlsx
+++ b/Selenium/FlipcartSearch/flipkart_mobiles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C241"/>
+  <dimension ref="A1:C361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,12 +470,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Nothing Phone (3a) (White, 256 GB)</t>
+          <t>Google Pixel 9A (Iris, 256 GB)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>₹26,999</t>
+          <t>₹49,999</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,46 +487,46 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>vivo T4x 5G (Pronto Purple, 128 GB)</t>
+          <t>POCO C71 (Cool Blue, 128 GB)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>₹14,999</t>
+          <t>₹6,999</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>POCO C71 (Cool Blue, 128 GB)</t>
+          <t>vivo T4x 5G (Marine Blue, 128 GB)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>₹6,999</t>
+          <t>₹14,999</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Nothing Phone (3a) Pro (Black, 256 GB)</t>
+          <t>Google Pixel 9A (Porcelain, 256 GB)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>₹33,999</t>
+          <t>₹49,999</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -538,17 +538,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>REDMI Note 14 Pro 5G (Ivy Green, 128 GB)</t>
+          <t>Google Pixel 9A (Obsidian, 256 GB)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>₹22,999</t>
+          <t>₹49,999</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
@@ -572,68 +572,68 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>REDMI A3X (Ocean Green, 64 GB)</t>
+          <t>Samsung Galaxy F05 (Twilight Blue, 64 GB)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>₹5,999</t>
+          <t>₹6,249</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Samsung Galaxy F05 (Twilight Blue, 64 GB)</t>
+          <t>POCO C71 (Cool Blue, 64 GB)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>₹6,499</t>
+          <t>₹6,399</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.9</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>POCO F7 5G (Phantom Black, 512 GB)</t>
+          <t>MOTOROLA g35 5G (Guava Red, 128 GB)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>₹33,999</t>
+          <t>₹9,999</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>OPPO Reno14 5G (Forest Green, 256 GB)</t>
+          <t>POCO M6 Plus 5G (Ice Silver, 128 GB)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>₹37,999</t>
+          <t>₹10,080</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.2</t>
         </is>
       </c>
     </row>
@@ -657,63 +657,63 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>vivo T4x 5G (Marine Blue, 128 GB)</t>
+          <t>Motorola g45 5G (Brilliant Green, 128 GB)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>₹13,999</t>
+          <t>₹11,999</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>REDMI A5 (Pondicherry Blue, 128 GB)</t>
+          <t>vivo T4 Lite 5G Charger in the Box (Prism Blue, 128 GB)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>₹7,499</t>
+          <t>₹9,999</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>vivo T4 Lite 5G Charger in the Box (Titanium Gold, 128 GB)</t>
+          <t>REDMI A3X (Olive Green, 128 GB)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>₹10,999</t>
+          <t>₹6,999</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MOTOROLA g35 5G (Guava Red, 128 GB)</t>
+          <t>MOTOROLA g05 (Forest Green, 64 GB)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>₹9,999</t>
+          <t>₹7,299</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -725,63 +725,63 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>POCO C75 5G (Enchanted Green, 64 GB)</t>
+          <t>POCO C71 (Power Black, 64 GB)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>₹7,699</t>
+          <t>₹6,399</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.9</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>vivo T4 Lite 5G Charger in the Box (Prism Blue, 128 GB)</t>
+          <t>POCO C75 5G (Enchanted Green, 64 GB)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>₹10,999</t>
+          <t>₹7,699</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MOTOROLA g05 (Forest Green, 64 GB)</t>
+          <t>REDMI A3X (Ocean Green, 64 GB)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>₹7,299</t>
+          <t>₹5,999</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>POCO M6 Plus 5G (Ice Silver, 128 GB)</t>
+          <t>REDMI A5 (Jaisalmer Gold, 128 GB)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>₹10,080</t>
+          <t>₹7,499</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -793,114 +793,114 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Motorola g45 5G (Pink Lavender, 128 GB)</t>
+          <t>POCO M7 5G (Mint Green, 128 GB)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>₹10,999</t>
+          <t>₹9,299</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MOTOROLA Edge 60 Fusion 5G (PANTONE Slipstream, 256 GB)</t>
+          <t>OPPO Reno14 5G (Forest Green, 256 GB)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>₹22,999</t>
+          <t>₹37,999</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Motorola Edge 50 Fusion (Marshmallow Blue, 128 GB)</t>
+          <t>Samsung SM 310E BLACK</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>₹18,999</t>
+          <t>₹1,000</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3.3</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>vivo T4 Lite 5G Charger in the Box (Titanium Gold, 128 GB)</t>
+          <t>Motorola g45 5G (Brilliant Blue, 128 GB)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>₹9,999</t>
+          <t>₹11,999</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MOTOROLA g05 (Plum Red, 64 GB)</t>
+          <t>vivo T4 Lite 5G Charger in the Box (Titanium Gold, 128 GB)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>₹7,299</t>
+          <t>₹9,999</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Motorola g45 5G (Brilliant Blue, 128 GB)</t>
+          <t>vivo T4 Lite 5G Charger in the Box (Titanium Gold, 128 GB)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>₹11,999</t>
+          <t>₹10,999</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>vivo T4x 5G (Pronto Purple, 256 GB)</t>
+          <t>MOTOROLA Edge 60 Fusion 5G (PANTONE Slipstream, 256 GB)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>₹16,999</t>
+          <t>₹22,999</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -912,34 +912,34 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Motorola Edge 50 Fusion (Forest Blue, 256 GB)</t>
+          <t>MOTOROLA g05 (Plum Red, 64 GB)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>₹20,999</t>
+          <t>₹7,299</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Samsung Guru Music 2 B310ED</t>
+          <t>OPPO Reno 12 5G (Matte Brown, 256 GB)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>₹990</t>
+          <t>₹19,999</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
@@ -963,131 +963,131 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>OPPO Reno 12 5G (Matte Brown, 256 GB)</t>
+          <t>OPPO K13 5G with 7000mAh and 80W SUPERVOOC Charger In-The-Box (Prism Black, 128 GB)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>₹19,999</t>
+          <t>₹17,999</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>vivo T4 Lite 5G Charger in the Box (Prism Blue, 256 GB)</t>
+          <t>POCO C71 (Power Black, 128 GB)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>₹12,999</t>
+          <t>₹6,999</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MOTOROLA Edge 60 Fusion 5G (PANTONE Zephyr, 256 GB)</t>
+          <t>REDMI A5 (Just Black, 64 GB)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>₹22,999</t>
+          <t>₹6,499</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>OPPO K13 5G with 7000mAh and 80W SUPERVOOC Charger In-The-Box (Prism Black, 128 GB)</t>
+          <t>REDMI A5 (Pondicherry Blue, 64 GB)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>₹17,999</t>
+          <t>₹6,499</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>vivo T4x 5G (Pronto Purple, 128 GB)</t>
+          <t>MOTOROLA g35 5G (Midnight Black, 128 GB)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>₹13,999</t>
+          <t>₹9,999</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>POCO C71 (Power Black, 64 GB)</t>
+          <t>vivo T4x 5G (Pronto Purple, 128 GB)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>₹6,399</t>
+          <t>₹14,999</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Samsung Galaxy F16 5G (Bling Black, 128 GB)</t>
+          <t>vivo T4x 5G (Marine Blue, 128 GB)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>₹10,749</t>
+          <t>₹13,999</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MOTOROLA g35 5G (Midnight Black, 128 GB)</t>
+          <t>Samsung Galaxy F16 5G (Bling Black, 128 GB)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>₹9,999</t>
+          <t>₹10,749</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1099,46 +1099,46 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>POCO F7 5G (Cyber Silver Edition, 256 GB)</t>
+          <t>Samsung Galaxy A35 5G (Awesome Lilac, 128 GB)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>₹31,999</t>
+          <t>₹19,999</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>vivo T4 Lite 5G Charger in the Box (Prism Blue, 128 GB)</t>
+          <t>POCO M7 Pro 5G (Lavender Frost, 256 GB)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>₹9,999</t>
+          <t>₹14,999</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>vivo T4 5G (Phantom Grey, 256 GB)</t>
+          <t>Motorola Edge 50 Fusion (Marshmallow Blue, 128 GB)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>₹23,999</t>
+          <t>₹18,999</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1150,12 +1150,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Motorola Edge 50 Fusion (Forest Blue, 128 GB)</t>
+          <t>vivo T4x 5G (Pronto Purple, 256 GB)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>₹18,999</t>
+          <t>₹16,999</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1167,46 +1167,46 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A35 5G (Awesome Lilac, 128 GB)</t>
+          <t>OPPO K13x 5G 6000mAh and 45W SUPERVOOC Charger &amp; AI (Midnight Violet, 128 GB)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>₹19,999</t>
+          <t>₹14,999</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>OPPO K13x 5G 6000mAh and 45W SUPERVOOC Charger &amp; AI (Sunset Peach, 128 GB)</t>
+          <t>Samsung Galaxy F16 5G (Vibing Blue, 128 GB)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>₹12,999</t>
+          <t>₹13,499</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>POCO M7 5G (Mint Green, 128 GB)</t>
+          <t>Samsung Galaxy F06 5G (Lit Violet, 128 GB)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>₹9,299</t>
+          <t>₹8,499</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1218,102 +1218,102 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Samsung Guru 1200</t>
+          <t>REDMI A3X (Olive Green, 64 GB)</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>₹978</t>
+          <t>₹5,999</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>REDMI A3X (Olive Green, 64 GB)</t>
+          <t>Motorola Edge 50 Fusion (Forest Blue, 256 GB)</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>₹5,999</t>
+          <t>₹20,999</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Motorola G85 5G (Viva Magenta, 128 GB)</t>
+          <t>Motorola g45 5G (Viva Magenta, 128 GB)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>₹16,999</t>
+          <t>₹10,999</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Samsung Galaxy F16 5G (Bling Black, 128 GB)</t>
+          <t>Motorola g45 5G (Pink Lavender, 128 GB)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>₹11,999</t>
+          <t>₹10,999</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>POCO F7 5G (Phantom Black, 256 GB)</t>
+          <t>Samsung Galaxy F16 5G (Bling Black, 128 GB)</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>₹31,999</t>
+          <t>₹11,999</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Motorola g45 5G (Brilliant Green, 128 GB)</t>
+          <t>OPPO K13x 5G 6000mAh and 45W SUPERVOOC Charger &amp; AI (Sunset Peach, 128 GB)</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>₹11,999</t>
+          <t>₹12,999</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.7</t>
         </is>
       </c>
     </row>
@@ -1337,80 +1337,80 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Motorola g45 5G (Pink Lavender, 128 GB)</t>
+          <t>POCO F7 5G (Phantom Black, 256 GB)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>₹11,999</t>
+          <t>₹31,999</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Motorola g45 5G (Viva Magenta, 128 GB)</t>
+          <t>Samsung Galaxy F06 5G (Bahama Blue, 128 GB)</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>₹11,999</t>
+          <t>₹9,799</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>POCO M7 Pro 5G (Lavender Frost, 256 GB)</t>
+          <t>vivo T4x 5G (Pronto Purple, 128 GB)</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>₹14,999</t>
+          <t>₹13,999</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>REDMI A5 (Just Black, 64 GB)</t>
+          <t>POCO M7 5G (Ocean Blue, 128 GB)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>₹6,499</t>
+          <t>₹9,299</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Samsung Galaxy F16 5G (Glam Green, 128 GB)</t>
+          <t>POCO M6 Plus 5G (Graphite Black, 128 GB)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>₹10,749</t>
+          <t>₹10,080</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1422,46 +1422,46 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>realme P3 5G (Space Silver, 256 GB)</t>
+          <t>POCO C75 5G (Silver Stardust, 64 GB)</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>₹18,499</t>
+          <t>₹7,699</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>POCO C75 5G (Silver Stardust, 64 GB)</t>
+          <t>Nokia 105 Single SIM, Keypad Mobile Phone with Wireless FM Radio</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>₹7,699</t>
+          <t>₹1,190</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.9</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>vivo T4x 5G (Marine Blue, 256 GB)</t>
+          <t>vivo T4 Lite 5G Charger in the Box (Prism Blue, 256 GB)</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>₹16,999</t>
+          <t>₹12,999</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1473,12 +1473,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Motorola Edge 50 Fusion (Hot Pink, 128 GB)</t>
+          <t>vivo T4x 5G (Marine Blue, 256 GB)</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>₹18,999</t>
+          <t>₹16,999</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1490,165 +1490,165 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>POCO C71 (Power Black, 128 GB)</t>
+          <t>REDMI A5 (Pondicherry Blue, 128 GB)</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>₹6,999</t>
+          <t>₹7,499</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>realme GT 6 (Razor Green, 256 GB)</t>
+          <t>realme C61 (Safari Green, 128 GB)</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>₹28,999</t>
+          <t>₹8,199</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>POCO F7 5G (Cyber Silver Edition, 512 GB)</t>
+          <t>OPPO K13 5G with 7000mAh and 80W SUPERVOOC Charger In-The-Box (Icy Purple, 256 GB)</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>₹33,999</t>
+          <t>₹19,999</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>REDMI 13 5G (Orchid Pink, 128 GB)</t>
+          <t>REDMI A3X (Ocean Green, 64 GB)</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>₹13,999</t>
+          <t>₹6,499</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>REDMI A3X (Ocean Green, 64 GB)</t>
+          <t>REDMI 13 5G (Orchid Pink, 128 GB)</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>₹6,499</t>
+          <t>₹12,499</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>realme GT 6 (Fluid Silver, 256 GB)</t>
+          <t>Infinix Note 50s 5G+ (Burgundy Red, 128 GB)</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>₹27,999</t>
+          <t>₹15,999</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Infinix Note 50s 5G+ (Titanium Grey, 128 GB)</t>
+          <t>realme Narzo N61 (Vyage Blue, 64 GB)</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>₹14,999</t>
+          <t>₹7,300</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Samsung Galaxy F06 5G (Lit Violet, 128 GB)</t>
+          <t>POCO M7 Pro 5G (Lunar Dust, 128 GB)</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>₹9,499</t>
+          <t>₹12,999</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>POCO M7 Pro 5G (Lunar Dust, 128 GB)</t>
+          <t>REDMI A3X (Midnight Black, 128 GB)</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>₹12,999</t>
+          <t>₹6,999</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>REDMI 13 5G (Hawaiian Blue, 128 GB)</t>
+          <t>Motorola g45 5G (Pink Lavender, 128 GB)</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>₹11,942</t>
+          <t>₹11,999</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1660,24 +1660,24 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Motorola Edge 50 Fusion (Marshmallow Blue, 256 GB)</t>
+          <t>Motorola Edge 50 Fusion (Forest Blue, 128 GB)</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>₹20,999</t>
+          <t>₹18,999</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Infinix Note 50s 5G+ (Burgundy Red, 128 GB)</t>
+          <t>Infinix Note 50s 5G+ (Titanium Grey, 128 GB)</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1694,12 +1694,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>IQOO Z10X 5G (Ultramarine, 128 GB)</t>
+          <t>POCO F7 5G (Cyber Silver Edition, 256 GB)</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>₹13,678</t>
+          <t>₹31,999</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1711,12 +1711,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A35 5G (Awesome Iceblue, 256 GB)</t>
+          <t>POCO M7 Pro 5G (Lavender Frost, 128 GB)</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>₹21,999</t>
+          <t>₹12,999</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1728,63 +1728,63 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>POCO M6 Plus 5G (Graphite Black, 128 GB)</t>
+          <t>realme C61 (Marble Black, 128 GB)</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>₹10,080</t>
+          <t>₹8,199</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>realme Narzo N61 (Vyage Blue, 64 GB)</t>
+          <t>REDMI A5 (Just Black, 128 GB)</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>₹7,244</t>
+          <t>₹7,499</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>POCO M7 5G (Ocean Blue, 128 GB)</t>
+          <t>POCO C75 5G (Aqua Bliss, 128 GB)</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>₹9,299</t>
+          <t>₹8,499</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>REDMI 13 5G (Orchid Pink, 128 GB)</t>
+          <t>POCO X7 5G (Yellow, 128 GB)</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>₹12,499</t>
+          <t>₹15,999</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1796,165 +1796,165 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>POCO C75 5G (Enchanted Green, 128 GB)</t>
+          <t>realme P3 5G (Space Silver, 256 GB)</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>₹8,499</t>
+          <t>₹18,499</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>vivo T4x 5G (Marine Blue, 128 GB)</t>
+          <t>Motorola g45 5G (Viva Magenta, 128 GB)</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>₹14,999</t>
+          <t>₹11,999</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>realme C61 (Safari Green, 128 GB)</t>
+          <t>Motorola G85 5G (Viva Magenta, 128 GB)</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>₹8,199</t>
+          <t>₹15,999</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Samsung Guru Music 2</t>
+          <t>MOTOROLA Edge 60 Fusion 5G (PANTONE Zephyr, 256 GB)</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>₹995</t>
+          <t>₹22,999</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>IQOO Z10X 5G (Titanium, 128 GB)</t>
+          <t>Tecno Spark Go 2 (Veil White, 64 GB)</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>₹13,790</t>
+          <t>₹6,999</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A35 5G (Awesome Navy, 256 GB)</t>
+          <t>Nokia 105 Single SIM, Keypad Mobile Phone with Wireless FM Radio</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>₹21,999</t>
+          <t>₹1,219</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.9</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Motorola Edge 50 Fusion (Hot Pink, 256 GB)</t>
+          <t>vivo T4 Lite 5G Charger in the Box (Prism Blue, 128 GB)</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>₹20,999</t>
+          <t>₹10,999</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Motorola G85 5G (Olive Green, 256 GB)</t>
+          <t>REDMI 13 5G (Hawaiian Blue, 128 GB)</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>₹18,999</t>
+          <t>₹11,943</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>POCO M7 Pro 5G (Lavender Frost, 128 GB)</t>
+          <t>Infinix Note 50s 5G+ (Titanium Grey, 128 GB)</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>₹12,999</t>
+          <t>₹14,999</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Motorola g45 5G (Brilliant Blue, 128 GB)</t>
+          <t>POCO M7 Pro 5G (Olive Twilight, 128 GB)</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>₹10,999</t>
+          <t>₹12,999</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -1966,165 +1966,165 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>OPPO K13 5G with 7000mAh and 80W SUPERVOOC Charger In-The-Box (Icy Purple, 128 GB)</t>
+          <t>OPPO F27 Pro+ (Midnight Navy, 128 GB)</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>₹17,999</t>
+          <t>₹18,749</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Motorola g45 5G (Viva Magenta, 128 GB)</t>
+          <t>Samsung SM 1207</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>₹10,999</t>
+          <t>₹842</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.2</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>itel it5330 | 2.8 inch Big Display | 1900 mAh Battery | Kingvoice</t>
+          <t>Motorola Edge 50 Fusion (Hot Pink, 256 GB)</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>₹1,349</t>
+          <t>₹20,999</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>OPPO K13 5G with 7000mAh and 80W SUPERVOOC Charger In-The-Box (Icy Purple, 256 GB)</t>
+          <t>Motorola Edge 50 Fusion (Marshmallow Blue, 256 GB)</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>₹19,999</t>
+          <t>₹20,999</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>MOTOROLA Edge 60 Fusion 5G (PANTONE Mykonos Blue, 256 GB)</t>
+          <t>Motorola g45 5G (Brilliant Blue, 128 GB)</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>₹22,999</t>
+          <t>₹10,999</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>POCO F7 5G (Frost White, 512 GB)</t>
+          <t>MOTOROLA Edge 60 Fusion 5G (PANTONE Mykonos Blue, 256 GB)</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>₹33,999</t>
+          <t>₹22,999</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A35 5G (Awesome Navy, 128 GB)</t>
+          <t>vivo T4 5G (Phantom Grey, 256 GB)</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>₹19,999</t>
+          <t>₹25,999</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Samsung Galaxy M35 5G (Moonlight Blue, 128 GB)</t>
+          <t>vivo T4 5G (Emerald Blaze, 256 GB)</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>₹16,985</t>
+          <t>₹23,999</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>REDMI A5 (Pondicherry Blue, 64 GB)</t>
+          <t>Nokia 105 Single SIM, Keypad Mobile Phone with Wireless FM Radio</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>₹6,499</t>
+          <t>₹1,099</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.9</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>MOTOROLA Edge 60 Fusion 5G (PANTONE Slipstream, 256 GB)</t>
+          <t>Motorola Edge 50 Fusion (Hot Pink, 128 GB)</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>₹24,999</t>
+          <t>₹18,999</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2136,131 +2136,131 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>realme C61 (Marble Black, 128 GB)</t>
+          <t>IQOO Z10X 5G (Ultramarine, 128 GB)</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>₹8,199</t>
+          <t>₹13,590</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Infinix SMART 9 HD (Mint Green, 64 GB)</t>
+          <t>vivo T4 5G (Phantom Grey, 256 GB)</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>₹6,699</t>
+          <t>₹23,999</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>POCO M7 Pro 5G (Olive Twilight, 128 GB)</t>
+          <t>Samsung Galaxy F16 5G (Bling Black, 128 GB)</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>₹12,999</t>
+          <t>₹13,499</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>realme P3x 5G (Midnight Blue, 128 GB)</t>
+          <t>OPPO K13 5G with 7000mAh and 80W SUPERVOOC Charger In-The-Box (Icy Purple, 128 GB)</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>₹12,999</t>
+          <t>₹17,999</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>realme 14x 5G (Jewel Red, 128 GB)</t>
+          <t>OPPO K13x 5G 6000mAh and 45W SUPERVOOC Charger &amp; AI (Midnight Violet, 128 GB)</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>₹14,999</t>
+          <t>₹12,999</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.7</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>vivo Y19e (Titanium Silver, 64 GB)</t>
+          <t>realme GT 6 (Fluid Silver, 256 GB)</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>₹7,999</t>
+          <t>₹27,999</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>OPPO K13x 5G 6000mAh and 45W SUPERVOOC Charger &amp; AI (Midnight Violet, 128 GB)</t>
+          <t>Samsung Galaxy A35 5G (Awesome Navy, 256 GB)</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>₹14,999</t>
+          <t>₹21,999</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>realme P3 Pro 5G (Saturn Brown, 128 GB)</t>
+          <t>Motorola G85 5G (Olive Green, 128 GB)</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>₹21,999</t>
+          <t>₹15,999</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2272,284 +2272,284 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>IQOO Z9s 5G (Titanium Matte, 128 GB)</t>
+          <t>Samsung Galaxy F06 5G (Bahama Blue, 128 GB)</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>₹18,948</t>
+          <t>₹8,499</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>vivo T4 5G (Phantom Grey, 256 GB)</t>
+          <t>REDMI A3X (Olive Green, 64 GB)</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>₹25,999</t>
+          <t>₹6,499</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>OPPO F27 Pro+ (Midnight Navy, 128 GB)</t>
+          <t>OPPO K13x 5G 6000mAh and 45W SUPERVOOC Charger &amp; AI (Sunset Peach, 128 GB)</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>₹18,749</t>
+          <t>₹11,999</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.6</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>MOTOROLA Edge 60 Pro (Pantone Sparkling Grape, 256 GB)</t>
+          <t>MOTOROLA Edge 60 Fusion 5G (PANTONE Amazonite, 256 GB)</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>₹29,999</t>
+          <t>₹22,999</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>vivo T4 5G (Emerald Blaze, 256 GB)</t>
+          <t>realme P2 Pro 5G (Parrot Green, 128 GB)</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>₹23,999</t>
+          <t>₹16,999</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Samsung Galaxy F16 5G (Bling Black, 128 GB)</t>
+          <t>Nokia 105 Classic with Charger</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>₹13,499</t>
+          <t>₹998</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.7</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Nokia 105 Single SIM, Keypad Mobile Phone with Wireless FM Radio</t>
+          <t>vivo Y19e (Titanium Silver, 64 GB)</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>₹1,219</t>
+          <t>₹7,999</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>REDMI 13 5G (Orchid Pink, 128 GB)</t>
+          <t>CMF by Nothing Phone 2 Pro (Light Green, 128 GB)</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>₹11,914</t>
+          <t>₹18,999</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>vivo T4 Lite 5G Charger in the Box (Titanium Gold, 256 GB)</t>
+          <t>Motorola g45 5G (Brilliant Green, 128 GB)</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>₹12,999</t>
+          <t>₹10,999</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Nokia 105 Single SIM, Keypad Mobile Phone with Wireless FM Radio</t>
+          <t>POCO M7 5G (Mint Green, 128 GB)</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>₹1,298</t>
+          <t>₹10,299</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>REDMI A3X (Ocean Green, 128 GB)</t>
+          <t>OPPO F27 Pro+ (Midnight Navy, 256 GB)</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>₹6,999</t>
+          <t>₹20,749</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>MOTOROLA Edge 60 Stylus (PANTONE Surf the Web, 256 GB)</t>
+          <t>Motorola g64 5G (Berry Red, 256 GB)</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>₹22,999</t>
+          <t>₹15,999</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Motorola g45 5G (Brilliant Green, 128 GB)</t>
+          <t>hmd 105 Dual Sim</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>₹10,999</t>
+          <t>₹1,127</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Motorola g64 5G (Berry Red, 256 GB)</t>
+          <t>realme 14x 5G (Jewel Red, 128 GB)</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>₹15,999</t>
+          <t>₹14,999</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Motorola G85 5G (Urban Grey, 128 GB)</t>
+          <t>realme GT 6 (Razor Green, 256 GB)</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>₹16,999</t>
+          <t>₹28,999</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>OPPO K13x 5G 6000mAh and 45W SUPERVOOC Charger &amp; AI (Midnight Violet, 128 GB)</t>
+          <t>Samsung Galaxy M35 5G (Thunder Grey, 128 GB)</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>₹12,999</t>
+          <t>₹15,818</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Motorola G85 5G (Cobalt Blue, 128 GB)</t>
+          <t>realme P2 Pro 5G (Parrot Green, 256 GB)</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>₹16,999</t>
+          <t>₹18,999</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2561,131 +2561,131 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>POCO M7 5G (Mint Green, 128 GB)</t>
+          <t>itel it5330 | 2.8 inch Big Display | 1900 mAh Battery | Kingvoice</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>₹10,299</t>
+          <t>₹1,349</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Nokia 105 Classic with Charger</t>
+          <t>POCO X7 Pro 5G (Yellow, 256 GB)</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>₹998</t>
+          <t>₹22,999</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>IQOO Z10 5G (Stellar Black / Black, 128 GB)</t>
+          <t>Motorola G85 5G (Olive Green, 256 GB)</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>₹21,499</t>
+          <t>₹17,999</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>realme P2 Pro 5G (Parrot Green, 512 GB)</t>
+          <t>REDMI A3X (Ocean Green, 128 GB)</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>₹23,999</t>
+          <t>₹6,999</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>MOTOROLA Edge 60 Fusion 5G (PANTONE Amazonite, 256 GB)</t>
+          <t>Motorola G85 5G (Urban Grey, 128 GB)</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>₹22,999</t>
+          <t>₹15,999</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>realme 14T 5G (Obsidian Black, 256 GB)</t>
+          <t>Samsung Galaxy F06 5G (Lit Violet, 64 GB)</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>₹19,999</t>
+          <t>₹7,999</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>REDMI 14C 5G (Stardust Purple, 128 GB)</t>
+          <t>Samsung Galaxy M35 5G (DayBreak Blue, 128 GB)</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>₹11,499</t>
+          <t>₹16,495</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>vivo Y19e (Majestic Green, 64 GB)</t>
+          <t>Samsung M05 (Mint Green, 64 GB)</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>₹7,999</t>
+          <t>₹6,824</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2697,165 +2697,165 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>POCO X7 5G (Yellow, 128 GB)</t>
+          <t>OnePlus Nord CE4 lite 5G (SUPER SILVER, 128 GB)</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>₹16,999</t>
+          <t>₹16,984</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Samsung Metro B313E Dual Sim - White</t>
+          <t>realme P3x 5G (Midnight Blue, 128 GB)</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>₹956</t>
+          <t>₹12,999</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Samsung Galaxy F06 5G (Bahama Blue, 128 GB)</t>
+          <t>MOTOROLA Edge 60 Stylus (PANTONE Surf the Web, 256 GB)</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>₹9,499</t>
+          <t>₹22,999</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>OPPO K12x 5G with 45W SUPERVOOC Charger In-The-Box (Feather Pink, 128 GB)</t>
+          <t>Infinix Note 50x 5G+ (Sea Breeze Green, 128 GB)</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>₹12,999</t>
+          <t>₹11,499</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>realme P3 5G (Space Silver, 128 GB)</t>
+          <t>realme Narzo N61 (Marble Black, 64 GB)</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>₹15,999</t>
+          <t>₹7,312</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>realme P2 Pro 5G (Parrot Green, 256 GB)</t>
+          <t>Motorola g64 5G (Berry Red, 128 GB)</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>₹19,199</t>
+          <t>₹13,999</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>REDMI 14C 5G (Stardust Purple, 64 GB)</t>
+          <t>MOTOROLA Edge 60 Fusion 5G (PANTONE Slipstream, 256 GB)</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>₹9,499</t>
+          <t>₹24,999</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>OPPO K13 5G with 7000mAh and 80W SUPERVOOC Charger In-The-Box (Prism Black, 256 GB)</t>
+          <t>realme P2 Pro 5G (Eagle Grey, 128 GB)</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>₹19,999</t>
+          <t>₹16,999</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Samsung Galaxy F06 5G (Bahama Blue, 128 GB)</t>
+          <t>OPPO K12x 5G with 45W SUPERVOOC Charger In-The-Box (Feather Pink, 128 GB)</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>₹10,999</t>
+          <t>₹12,999</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Motorola G85 5G (Olive Green, 128 GB)</t>
+          <t>IQOO Z10X 5G (Titanium, 128 GB)</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>₹16,999</t>
+          <t>₹13,650</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -2867,63 +2867,63 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>OPPO K13x 5G 6000mAh and 45W SUPERVOOC Charger &amp; AI (Sunset Peach, 128 GB)</t>
+          <t>Samsung Galaxy M35 5G (Moonlight Blue, 128 GB)</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>₹11,999</t>
+          <t>₹16,990</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Samsung SM 1207</t>
+          <t>POCO X7 5G (Glacier Green, 128 GB)</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>₹842</t>
+          <t>₹15,999</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Nothing Phone (3a) (White, 256 GB)</t>
+          <t>realme P3 5G (Nebula Pink, 128 GB)</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>₹26,999</t>
+          <t>₹15,999</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>OnePlus Nord CE4 lite 5G (SUPER SILVER, 128 GB)</t>
+          <t>realme P3 5G (Comet Grey, 128 GB)</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>₹16,995</t>
+          <t>₹15,999</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -2935,29 +2935,29 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>IQOO Z9s 5G (Titanium Matte, 128 GB)</t>
+          <t>POCO M7 5G (Ocean Blue, 128 GB)</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>₹18,929</t>
+          <t>₹9,299</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>IQOO Z10X 5G (Titanium, 128 GB)</t>
+          <t>CMF by Nothing Phone 2 Pro (White, 128 GB)</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>₹13,790</t>
+          <t>₹18,999</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -2969,17 +2969,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>LAVA A1 Josh BOL Keypad Mobile|1000 mAh Battery|Expandable Storage 32GB</t>
+          <t>OPPO Reno 12 5G (Matte Brown, 256 GB)</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>₹1,299</t>
+          <t>₹19,999</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>₹8,937</t>
+          <t>₹8,907</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3003,29 +3003,29 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 Ultra 5G (Titanium Gray, 256 GB)</t>
+          <t>Motorola Edge 50 Neo (PANTONE Poinciana, 256 GB)</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>₹80,999</t>
+          <t>₹19,999</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Motorola Edge 50 Neo (PANTONE Poinciana, 256 GB)</t>
+          <t>Infinix Note 50s 5G+ (Burgundy Red, 128 GB)</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>₹19,999</t>
+          <t>₹14,999</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3037,12 +3037,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>realme P3 5G (Space Silver, 256 GB)</t>
+          <t>realme P3 5G (Comet Grey, 128 GB)</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>₹18,499</t>
+          <t>₹16,999</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -3054,131 +3054,131 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>REDMI A3X (Ocean Green, 64 GB)</t>
+          <t>realme C61 (Safari Green, 64 GB)</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>₹6,499</t>
+          <t>₹7,699</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>REDMI A3X (Ocean Green, 64 GB)</t>
+          <t>Nothing Phone (3a) (White, 256 GB)</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>₹5,999</t>
+          <t>₹26,999</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Kechaoda A26</t>
+          <t>Nothing Phone (3a) (Black, 256 GB)</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>₹918</t>
+          <t>₹26,999</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>realme Narzo N61 (Vyage Blue, 64 GB)</t>
+          <t>Nothing Phone (3a) (White, 128 GB)</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>₹7,244</t>
+          <t>₹24,999</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>REDMI A4 5G only on Jio SIM (Sparkle Purple, 64 GB)</t>
+          <t>Nothing Phone (3a) (Blue, 128 GB)</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>₹8,567</t>
+          <t>₹24,999</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>POCO M7 Pro 5G (Olive Twilight, 128 GB)</t>
+          <t>OnePlus Nord CE4 lite 5G (ULTRA ORANGE, 128 GB)</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>₹12,999</t>
+          <t>₹16,965</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Infinix Note 50s 5G+ (Titanium Grey, 128 GB)</t>
+          <t>LAVA A1 Josh BOL Keypad Mobile|1000 mAh Battery|Expandable Storage 32GB</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>₹15,999</t>
+          <t>₹1,299</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>IQOO Z10X 5G (Titanium, 128 GB)</t>
+          <t>CMF by Nothing Phone 2 Pro (Black, 128 GB)</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>₹15,200</t>
+          <t>₹18,999</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3190,80 +3190,80 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>REDMI A3X (Olive Green, 64 GB)</t>
+          <t>CMF by Nothing Phone 2 Pro (Light Green, 256 GB)</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>₹5,999</t>
+          <t>₹20,999</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Infinix Note 50x 5G+ (Enchanted Purple, 128 GB)</t>
+          <t>CMF by Nothing Phone 2 Pro (Light Green, 128 GB)</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>₹12,999</t>
+          <t>₹18,999</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Nothing Phone (3a) (Black, 128 GB)</t>
+          <t>CMF by Nothing Phone 2 Pro (Orange, 128 GB)</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>₹24,999</t>
+          <t>₹18,999</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Nothing Phone (3a) (Black, 256 GB)</t>
+          <t>REDMI 13 5G (Black Diamond, 128 GB)</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>₹26,999</t>
+          <t>₹12,980</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Nothing Phone (3a) (White, 128 GB)</t>
+          <t>Motorola Edge 50 Fusion (Hot Pink, 128 GB)</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>₹24,999</t>
+          <t>₹18,999</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -3275,63 +3275,63 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Nothing Phone (3a) (Blue, 128 GB)</t>
+          <t>OnePlus Nord CE4 lite 5G (SUPER SILVER, 128 GB)</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>₹24,999</t>
+          <t>₹16,984</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Nothing Phone (3a) (Blue, 256 GB)</t>
+          <t>REDMI A4 5G only on Jio SIM (Sparkle Purple, 64 GB)</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>₹26,999</t>
+          <t>₹8,584</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Nothing Phone (3a) (Blue, 256 GB)</t>
+          <t>MOTOROLA Edge 60 5G (PANTONE Shamrock, 256 GB)</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>₹26,999</t>
+          <t>₹25,999</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Infinix Note 50s 5G+ (Marine Drift, 256 GB)</t>
+          <t>Infinix Note 50s 5G+ (Marine Drift, 128 GB)</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>₹17,999</t>
+          <t>₹14,999</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3343,12 +3343,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Infinix Note 50s 5G+ (Titanium Grey, 256 GB)</t>
+          <t>IQOO Z10X 5G (Titanium, 128 GB)</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>₹17,999</t>
+          <t>₹13,650</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3360,97 +3360,97 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Infinix Note 50s 5G+ (Marine Drift, 128 GB)</t>
+          <t>realme Narzo N61 (Voyage Blue, 128 GB)</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>₹15,999</t>
+          <t>₹9,145</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A16 5G (Gold, 128 GB)</t>
+          <t>OPPO Reno14 5G (Forest Green, 256 GB)</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>₹14,793</t>
+          <t>₹37,999</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>REDMI A3X (Ocean Green, 128 GB)</t>
+          <t>OnePlus Nord CE4 lite 5G (ULTRA ORANGE, 256 GB)</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>₹6,999</t>
+          <t>₹21,499</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Infinix Note 50x 5G+ (Sea Breeze Green, 128 GB)</t>
+          <t>OnePlus Nord CE4 lite 5G (MEGA BLUE, 256 GB)</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>₹12,999</t>
+          <t>₹21,999</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 (Starlight, 128 GB)</t>
+          <t>POCO M7 Pro 5G (Olive Twilight, 128 GB)</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>₹52,990</t>
+          <t>₹12,999</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>OnePlus Nord CE4 lite 5G (SUPER SILVER, 256 GB)</t>
+          <t>POCO F7 5G (Phantom Black, 256 GB)</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>₹22,490</t>
+          <t>₹31,999</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -3462,12 +3462,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>IQOO Z10X 5G (Ultramarine, 128 GB)</t>
+          <t>realme C61 (Marble Black, 64 GB)</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>₹15,038</t>
+          <t>₹7,699</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -3479,46 +3479,46 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>IQOO Z10X 5G (Ultramarine, 256 GB)</t>
+          <t>realme C61 (Marble Black, 128 GB)</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>₹16,780</t>
+          <t>₹8,199</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Kechaoda A26</t>
+          <t>realme C61 (Safari Green, 128 GB)</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>₹935</t>
+          <t>₹8,199</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Tecno Spark Go 2 (Ink Black, 64 GB)</t>
+          <t>IQOO Z9s 5G (Titanium Matte, 128 GB)</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>₹6,999</t>
+          <t>₹19,987</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -3530,63 +3530,63 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Tecno Spark Go 2 (Veil White, 64 GB)</t>
+          <t>Nothing Phone (3a) Pro (Black, 256 GB)</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>₹6,999</t>
+          <t>₹32,999</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Infinix Note 50x 5G+ (Titanium Grey, 128 GB)</t>
+          <t>OPPO F27 Pro+ (Dusk Pink, 128 GB)</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>₹11,499</t>
+          <t>₹18,749</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Kechaoda K115</t>
+          <t>OPPO F27 Pro+ (Dusk Pink, 256 GB)</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>₹990</t>
+          <t>₹20,749</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>MOTOROLA Edge 60 5G (PANTONE Shamrock, 256 GB)</t>
+          <t>OPPO F27 Pro+ (Midnight Navy, 256 GB)</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>₹25,999</t>
+          <t>₹20,749</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -3598,182 +3598,182 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Nokia 105 Classic with Charger</t>
+          <t>OPPO F27 Pro+ (Midnight Navy, 128 GB)</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>₹1,249</t>
+          <t>₹18,749</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>vivo T3 Pro 5G (Sandstone Orange, 128 GB)</t>
+          <t>OPPO K12x 5G with 45W SUPERVOOC Charger In-The-Box (Feather Pink, 256 GB)</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>₹22,999</t>
+          <t>₹15,999</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>vivo T3 Pro 5G (Emerald Green, 128 GB)</t>
+          <t>POCO F7 5G (Cyber Silver Edition, 256 GB)</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>₹22,999</t>
+          <t>₹31,999</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>vivo T3 Pro 5G (Emerald Green, 256 GB)</t>
+          <t>Kechaoda K115</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>₹24,999</t>
+          <t>₹990</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Motorola g45 5G (Brilliant Green, 128 GB)</t>
+          <t>Kechaoda A26</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>₹10,999</t>
+          <t>₹935</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Infinix Note 50x 5G+ (Enchanted Purple, 128 GB)</t>
+          <t>CMF by Nothing Phone 2 Pro (White, 256 GB)</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>₹11,499</t>
+          <t>₹20,999</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Infinix Note 50x 5G+ (Sea Breeze Green, 128 GB)</t>
+          <t>CMF by Nothing Phone 2 Pro (Black, 256 GB)</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>₹11,499</t>
+          <t>₹20,999</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Motorola g45 5G (Pink Lavender, 128 GB)</t>
+          <t>REDMI A3X (Ocean Green, 64 GB)</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>₹11,999</t>
+          <t>₹5,999</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>realme P3 5G (Nebula Pink, 256 GB)</t>
+          <t>Infinix Note 50x 5G+ (Sea Breeze Green, 128 GB)</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>₹18,499</t>
+          <t>₹12,999</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Apple iPhone 13 (Midnight, 128 GB)</t>
+          <t>IQOO Z10X 5G (Ultramarine, 256 GB)</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>₹44,999</t>
+          <t>₹16,600</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>IQOO Z10X 5G (Ultramarine, 128 GB)</t>
+          <t>Infinix Note 50s 5G+ (Marine Drift, 128 GB)</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>₹13,678</t>
+          <t>₹15,999</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -3785,46 +3785,46 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>realme GT 6 (Fluid Silver, 512 GB)</t>
+          <t>realme Narzo N61 (Marble Black, 64 GB)</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>₹32,999</t>
+          <t>₹7,312</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Nothing Phone (3a) Pro (Black, 256 GB)</t>
+          <t>IQOO Z10X 5G (Titanium, 128 GB)</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>₹33,999</t>
+          <t>₹15,200</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Infinix Note 50x 5G+ (Titanium Grey, 128 GB)</t>
+          <t>Motorola g45 5G (Pink Lavender, 128 GB)</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>₹12,999</t>
+          <t>₹11,999</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -3836,97 +3836,97 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Kechaoda K115</t>
+          <t>Motorola G85 5G (Olive Green, 256 GB)</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>₹994</t>
+          <t>₹17,999</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>vivo T3 Pro 5G (Sandstone Orange, 256 GB)</t>
+          <t>Motorola g45 5G (Brilliant Green, 128 GB)</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>₹24,999</t>
+          <t>₹10,999</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>POCO F7 5G (Cyber Silver Edition, 256 GB)</t>
+          <t>Apple iPhone 16 Pro (Natural Titanium, 128 GB)</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>₹31,999</t>
+          <t>₹1,09,900</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.7</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 Pro (Desert Titanium, 256 GB)</t>
+          <t>POCO C71 (Cool Blue, 64 GB)</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>₹1,22,900</t>
+          <t>₹6,399</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>3.9</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>OPPO F27 Pro+ (Dusk Pink, 128 GB)</t>
+          <t>POCO X7 5G (Yellow, 128 GB)</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>₹18,749</t>
+          <t>₹15,999</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>OPPO F27 Pro+ (Midnight Navy, 128 GB)</t>
+          <t>Infinix Note 50s 5G+ (Titanium Grey, 256 GB)</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>₹18,749</t>
+          <t>₹17,999</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -3938,12 +3938,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>OPPO F27 Pro+ (Midnight Navy, 256 GB)</t>
+          <t>Infinix Note 50s 5G+ (Marine Drift, 256 GB)</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>₹20,749</t>
+          <t>₹17,999</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -3955,578 +3955,2618 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Nothing Phone (3a) Pro (Grey, 256 GB)</t>
+          <t>Apple iPhone 16 Plus (Black, 128 GB)</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>₹31,999</t>
+          <t>₹79,999</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.6</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Nothing Phone (3a) Pro (Black, 128 GB)</t>
+          <t>Kechaoda A26</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>₹29,999</t>
+          <t>₹918</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Nothing Phone (3a) Pro (Grey, 128 GB)</t>
+          <t>Kechaoda A26</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>₹29,999</t>
+          <t>₹945</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Nothing Phone (3a) Pro (Black, 256 GB)</t>
+          <t>Motorola g64 5G (Berry Red, 128 GB)</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>₹31,999</t>
+          <t>₹13,999</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Samsung Galaxy M35 5G (Thunder Grey, 128 GB)</t>
+          <t>POCO M7 5G (Ocean Blue, 128 GB)</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>₹15,847</t>
+          <t>₹10,299</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 Pro (Black Titanium, 128 GB)</t>
+          <t>Nothing Phone (3a) Pro (Grey, 256 GB)</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>₹1,12,900</t>
+          <t>₹30,999</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Samsung Galaxy F06 5G (Bahama Blue, 128 GB)</t>
+          <t>Nothing Phone (3a) Pro (Black, 256 GB)</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>₹9,499</t>
+          <t>₹30,999</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>POCO C71 (Cool Blue, 128 GB)</t>
+          <t>Nothing Phone (3a) Pro (Grey, 128 GB)</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>₹6,999</t>
+          <t>₹28,999</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 (Black, 128 GB)</t>
+          <t>REDMI A3X (Olive Green, 64 GB)</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>₹64,900</t>
+          <t>₹5,999</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>vivo T3 5G (Cosmic Blue, 256 GB)</t>
+          <t>Kechaoda K115</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>₹18,999</t>
+          <t>₹994</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>MOTOROLA Edge 60 Stylus (PANTONE Gibraltar Sea, 256 GB)</t>
+          <t>Samsung Galaxy A06 5G (Black, 64 GB)</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>₹22,999</t>
+          <t>₹9,020</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Nokia 106 4G Keypad Mobile, Long-Lasting Battery, MicroSD Card Slot</t>
+          <t>Apple iPhone 16 Pro (Black Titanium, 256 GB)</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>₹1,999</t>
+          <t>₹1,19,900</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4.7</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Samsung Galaxy M35 5G (Moonlight Blue, 128 GB)</t>
+          <t>REDMI A3X (Ocean Green, 128 GB)</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>₹16,985</t>
+          <t>₹6,999</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Samsung Galaxy M35 5G (Thunder Grey, 128 GB)</t>
+          <t>REDMI A3X (Olive Green, 128 GB)</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>₹15,950</t>
+          <t>₹6,999</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Tecno POP 9 4G (Magic Skin Green, 64 GB)</t>
+          <t>REDMI A3X (Midnight Black, 128 GB)</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>₹6,499</t>
+          <t>₹6,999</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Apple iPhone 13 (Starlight, 128 GB)</t>
+          <t>REDMI A3X (Olive Green, 64 GB)</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>₹44,999</t>
+          <t>₹6,499</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>POCO X7 5G (Yellow, 128 GB)</t>
+          <t>REDMI A3X (Midnight Black, 64 GB)</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>₹16,999</t>
+          <t>₹6,499</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Motorola G85 5G (Cobalt Blue, 256 GB)</t>
+          <t>REDMI A3X (Ocean Green, 64 GB)</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>₹18,999</t>
+          <t>₹6,499</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Kechaoda K115</t>
+          <t>Nothing Phone (3a) Pro (Black, 128 GB)</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>₹998</t>
+          <t>₹28,999</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Infinix SMART 9 HD (Neo Titanium, 64 GB)</t>
+          <t>Infinix Note 50x 5G+ (Sea Breeze Green, 128 GB)</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>₹6,699</t>
+          <t>₹11,499</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>POCO C61 (Mystical Green, 64 GB)</t>
+          <t>Infinix Note 50x 5G+ (Titanium Grey, 128 GB)</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>₹6,820</t>
+          <t>₹11,499</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>itel Keypad Mobile | 2.4 inch Display| Type C Charging</t>
+          <t>Tecno Spark Go 2 (Veil White, 64 GB)</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>₹1,069</t>
+          <t>₹6,999</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Nokia 105 Single SIM, Keypad Mobile Phone with Wireless FM Radio</t>
+          <t>Infinix Note 50x 5G+ (Enchanted Purple, 128 GB)</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>₹1,298</t>
+          <t>₹12,999</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>vivo Y19e (Titanium Silver, 64 GB)</t>
+          <t>Apple iPhone 13 (Midnight, 128 GB)</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>₹7,999</t>
+          <t>₹44,999</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.6</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Kechaoda A26</t>
+          <t>Infinix Note 50x 5G+ (Enchanted Purple, 128 GB)</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>₹895</t>
+          <t>₹11,499</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Samsung Galaxy M35 5G (DayBreak Blue, 256 GB)</t>
+          <t>Apple iPhone 15 (Black, 128 GB)</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>₹18,556</t>
+          <t>₹64,900</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.6</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 Pro (Black Titanium, 256 GB)</t>
+          <t>hmd 105 Dual Sim</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>₹1,22,900</t>
+          <t>₹1,134</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Samsung Galaxy M35 5G (Moonlight Blue, 256 GB)</t>
+          <t>realme GT 6 (Fluid Silver, 512 GB)</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>₹24,432</t>
+          <t>₹32,999</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>REDMI A4 5G only on Jio SIM (Starry Black, 64 GB)</t>
+          <t>realme GT 6 (Fluid Silver, 256 GB)</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>₹8,670</t>
+          <t>₹27,999</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>vivo T3 5G (Crystal Flake, 128 GB)</t>
+          <t>Samsung Galaxy A35 5G (Awesome Navy, 256 GB)</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>₹17,499</t>
+          <t>₹21,999</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Nothing Phone (3a) Pro (Grey, 256 GB)</t>
+          <t>Apple iPhone 14 (Starlight, 128 GB)</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>₹33,999</t>
+          <t>₹52,990</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.6</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>vivo T3 5G (Cosmic Blue, 128 GB)</t>
+          <t>MOTOROLA Edge 60 Stylus (PANTONE Gibraltar Sea, 256 GB)</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>₹17,499</t>
+          <t>₹22,999</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>vivo T3 5G (Crystal Flake, 256 GB)</t>
+          <t>Kechaoda K115</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>₹18,999</t>
+          <t>₹998</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>POCO C75 5G (Enchanted Green, 128 GB)</t>
+          <t>Nothing Phone (3a) Pro (Grey, 256 GB)</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
+          <t>₹32,999</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>IQOO Z10X 5G (Ultramarine, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>₹13,590</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Kechaoda K115</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>₹998</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Kechaoda K115</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>₹998</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Kechaoda K115</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>₹998</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Infinix SMART 9 HD (Neo Titanium, 64 GB)</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>₹6,699</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy S24 5G (Amber Yellow, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>₹52,999</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>OnePlus Nord CE4 lite 5G (MEGA BLUE, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>₹16,969</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Apple iPhone 13 (Starlight, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>₹44,999</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Nokia 105 Classic with Charger</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>₹998</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Tecno Pova 6 Neo 5G (Midnight Shadow, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>₹11,999</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy S24+ 5G (Onyx Black, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>₹52,999</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>vivo Y19e (Titanium Silver, 64 GB)</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>₹7,999</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>REDMI A4 5G only on Jio SIM (Starry Black, 64 GB)</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>₹8,570</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>POCO X7 5G (Glacier Green, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>₹15,999</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>REDMI 13 5G (Hawaiian Blue, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>₹11,943</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>MOTOROLA Edge 60 Pro (Pantone Dazzling Blue, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>₹29,999</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy F06 5G (Bahama Blue, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
           <t>₹8,499</t>
         </is>
       </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>4.3</t>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy F16 5G (Bling Black, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>₹13,499</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>POCO M6 Plus 5G (Ice Silver, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>₹11,499</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy S24 Ultra 5G (Titanium Gray, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>₹83,498</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>realme Narzo 80x 5G (Deep Ocean, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>₹12,999</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>POCO C71 (Power Black, 64 GB)</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>₹6,399</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>POCO C75 5G (Aqua Bliss, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>₹8,499</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>itel Keypad Mobile | 2.4 inch Display| Type C Charging</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>₹1,069</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>vivo T4 Ultra 5G (Phoenix Gold, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>₹37,999</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>vivo T4 Ultra 5G (Phoenix Gold, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>₹39,999</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>vivo T4 Ultra 5G (Meteor Grey, 512 GB)</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>₹41,999</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>vivo T4 Ultra 5G (Meteor Grey, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>₹37,999</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>vivo T4 Ultra 5G (Phoenix Gold, 512 GB)</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>₹41,999</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>vivo T4 Ultra 5G (Meteor Grey, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>₹39,999</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Tecno Pova 6 Neo 5G (Aurora Cloud, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>₹13,999</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Motorola g45 5G (Viva Magenta, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>₹10,999</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Apple iPhone 16e (White, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>₹54,900</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy A06 5G (Light Gray, 64 GB)</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>₹9,169</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>OPPO Reno14 5G (Pearl White, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>₹37,999</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>IQOO Neo 10R 5G (MoonKnight Titanium, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>₹30,830</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Infinix Note 50x 5G+ (Titanium Grey, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>₹12,999</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy S24 5G (Onyx Black, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>₹52,999</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Tecno POP 9 4G (Magic Skin Green, 64 GB)</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>₹6,499</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Motorola G85 5G (Cobalt Blue, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>₹17,999</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>realme GT 6 (Razor Green, 512 GB)</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>₹32,999</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>realme Narzo 80x 5G (Deep Ocean, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>₹12,486</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Kechaoda A26</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>₹892</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>realme GT 6 (Razor Green, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>₹27,999</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>realme GT 6 (Razor Green, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>₹28,999</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>realme GT 6 (Fluid Silver, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>₹27,999</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Jio PRIMA2 4G</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>₹3,469</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>realme Narzo 80x 5G (Sunlit Gold, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>₹12,993</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>KARBONN K101i Dual SIM,Keypad Mobile,1.8''LCD,1000mAh Battery,TypeC USB,Memory Up to32GB</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>₹876</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Nokia 3210 4G</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>₹3,999</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>MOTOROLA Edge 60 Stylus (PANTONE Surf the Web, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>₹22,999</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>REDMI A5 (Just Black, 64 GB)</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>₹6,499</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy S24 FE 5G (Graphite, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>₹41,999</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Infinix GT 30 Pro 5G+ (Dark Flare, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>₹24,999</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Infinix GT 30 Pro 5G+ (Blade White, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>₹24,999</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Infinix GT 30 Pro 5G+ (Blade White, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>₹26,999</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>REDMI 13 5G (Orchid Pink, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>₹12,499</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy M35 5G (Thunder Grey, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>₹17,500</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>IQOO Z10X 5G (Titanium, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>₹16,950</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Apple iPhone 16 Pro (Black Titanium, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>₹1,09,900</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>IQOO Z10 5G (Stellar Black / Black, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>₹21,939</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>hmd 105 Dual Sim</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>₹1,119</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>hmd 105 Dual Sim</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>₹1,127</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>realme Narzo 80x 5G (Sunlit Gold, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>₹12,245</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>vivo T3 5G (Cosmic Blue, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>₹18,499</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy M35 5G (Thunder Grey, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>₹18,980</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>POCO M7 Pro 5G (Lavender Frost, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>₹12,999</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Kechaoda K115</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>₹998</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>realme 14 Pro 5G (Pearl White, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>₹24,999</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>POCO M7 Pro 5G (Lavender Frost, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>₹14,999</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>realme 14x 5G (Jewel Red, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>₹14,999</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>realme 14x 5G (Golden Glow, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>₹15,999</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>realme 14x 5G (Jewel Red, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>₹14,999</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>POCO M7 Pro 5G (Lavender Frost, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>₹14,999</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>realme 14 Pro 5G (Pearl White, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>₹24,999</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Tecno Spark Go 2 (Titanium Grey, 64 GB)</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>₹6,999</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Tecno Spark Go 2 (Turquoise Green, 64 GB)</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>₹6,999</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy F16 5G (Bling Black, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>₹10,749</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>OnePlus Nord CE4 lite 5G (MEGA BLUE, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>₹16,969</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>IQOO Z10 5G (Stellar Black / Black, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>₹23,275</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Apple iPhone 16 Plus (Pink, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>₹79,999</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>realme P2 Pro 5G (Parrot Green, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>₹18,999</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>vivo T3 5G (Crystal Flake, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>₹16,999</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>realme P2 Pro 5G (Parrot Green, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>₹16,999</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>vivo T3 5G (Cosmic Blue, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>₹16,999</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>vivo T3 5G (Crystal Flake, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>₹18,499</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy S24 FE 5G (Blue, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>₹41,999</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy S24 FE 5G (Mint, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>₹41,999</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Kechaoda K115</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>₹978</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>OnePlus 13R 5G (Astral Trail, 512 GB)</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>₹42,917</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>OnePlus 13R 5G (Nebula Noir, 512 GB)</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>₹43,299</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Google Pixel 8a (Porcelain, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>₹37,999</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy M35 5G (DayBreak Blue, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>₹20,999</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>realme P3 Ultra 5G (Orion Red, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>₹24,999</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>realme P3 Ultra 5G (Neptune Blue, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>₹22,999</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Kechaoda A26</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>₹929</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy F06 5G (Lit Violet, 64 GB)</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>₹7,999</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>CMF by Nothing Phone 1 (Black, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>₹17,999</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>CMF by Nothing Phone 1 (Orange, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>₹15,999</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>CMF by Nothing Phone 1 (Blue, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>₹15,999</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>CMF by Nothing Phone 1 (Orange, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>₹17,999</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>CMF by Nothing Phone 1 (Light Green, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>₹15,999</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>CMF by Nothing Phone 1 (Light Green, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>₹17,999</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>vivo T3 Pro 5G (Emerald Green, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>₹22,999</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>vivo T3 Pro 5G (Sandstone Orange, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>₹22,999</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Apple iPhone 14 (Midnight, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>₹52,990</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>realme 14 Pro 5G (Pearl White, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>₹26,999</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>realme 14 Pro 5G (Jaipur Pink, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>₹24,999</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy S24 FE 5G (Blue, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>₹35,999</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>REDMI A5 (Pondicherry Blue, 64 GB)</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>₹6,499</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>POCO X6 Pro 5G (Yellow, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>₹19,699</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Apple iPhone 16 Plus (Black, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>₹89,999</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy F06 5G (Bahama Blue, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>₹9,799</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>IQOO Neo 10R 5G (Raging Blue, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>₹28,397</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>IQOO Z10 5G (Glacier Silver / Silver, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>₹21,899</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>MOTOROLA Edge 60 Pro (Pantone Sparkling Grape, 512 GB)</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>₹37,999</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>vivo T3 Pro 5G (Sandstone Orange, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>₹24,999</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy A06 5G (Light Green, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>₹10,125</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>REDMI 13 5G (Black Diamond, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>₹19,999</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>CMF by Nothing Phone 1 (Blue, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>₹17,999</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>4.4</t>
         </is>
       </c>
     </row>
